--- a/src/main/resources/TestData.xlsx
+++ b/src/main/resources/TestData.xlsx
@@ -21,7 +21,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="32">
+  <si>
+    <t xml:space="preserve">TC_ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_Name</t>
+  </si>
   <si>
     <t xml:space="preserve">schemeName</t>
   </si>
@@ -65,6 +71,12 @@
     <t xml:space="preserve">schemeFeeAmount</t>
   </si>
   <si>
+    <t xml:space="preserve">TC_01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validate Duplicate Scheme Creation</t>
+  </si>
+  <si>
     <t xml:space="preserve">Scheme Test 3</t>
   </si>
   <si>
@@ -84,6 +96,18 @@
   </si>
   <si>
     <t xml:space="preserve">Flat Value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validate New Scheme Creation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scheme Test</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is scheme description for </t>
   </si>
   <si>
     <t xml:space="preserve">Aadhar Number </t>
@@ -217,25 +241,29 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+      <selection pane="topLeft" activeCell="E4" activeCellId="0" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="2" style="0" width="19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="29.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="28.36"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="21.19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="31.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="29.91"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="19.1"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="24.73"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="31.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="20.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="26.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="0" width="19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="29.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="28.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="21.19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="31.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="29.91"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="19.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="24.73"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="19.1"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -281,70 +309,132 @@
       <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" s="3" t="n">
+        <v>19</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="3" t="n">
         <v>100</v>
       </c>
-      <c r="F2" s="3" t="n">
+      <c r="H2" s="3" t="n">
         <v>3000</v>
       </c>
-      <c r="G2" s="3" t="n">
+      <c r="I2" s="3" t="n">
         <v>30000</v>
       </c>
-      <c r="H2" s="3" t="n">
+      <c r="J2" s="3" t="n">
         <v>15.5</v>
       </c>
-      <c r="I2" s="3" t="n">
+      <c r="K2" s="3" t="n">
         <v>36</v>
       </c>
-      <c r="J2" s="3" t="n">
+      <c r="L2" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="K2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="L2" s="2" t="s">
+      <c r="M2" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="P2" s="3" t="n">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="M2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="N2" s="3" t="n">
+      <c r="E3" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="3" t="n">
+        <v>100</v>
+      </c>
+      <c r="H3" s="3" t="n">
+        <v>3000</v>
+      </c>
+      <c r="I3" s="3" t="n">
+        <v>30000</v>
+      </c>
+      <c r="J3" s="3" t="n">
+        <v>15.5</v>
+      </c>
+      <c r="K3" s="3" t="n">
+        <v>36</v>
+      </c>
+      <c r="L3" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="P3" s="3" t="n">
         <v>1.34</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="5">
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="B2" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="D2:D3" type="list">
       <formula1>"Capri Gold Loans,Shivalik Small Finanace Bank,AGRI,MSME,Bank Of Baroda,Karur Vysya Bank"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="D2" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="F2:F3" type="list">
       <formula1>"Standard,Rebate"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="K2" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="M2:M3" type="list">
       <formula1>"Monthly,Bi-Monthly,Quarterly,Half Yearly,Yearly"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="L2" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="N2:N3" type="list">
       <formula1>"MTM Charges,Processing Fee,SOA Charges,Pre-Auction Charges,Post-Auction Charges,Courier Charges,Other Charges,Legal Charges"</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="M2" type="list">
+    <dataValidation allowBlank="true" operator="equal" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="O2:O3" type="list">
       <formula1>"Flat Value,Percentage Of Loan Amount"</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -379,13 +469,13 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/src/main/resources/TestData.xlsx
+++ b/src/main/resources/TestData.xlsx
@@ -5,11 +5,12 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="SchemeMaster" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="SchemeMaster" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="LoanCreationData" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -21,7 +22,16 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="37">
+  <si>
+    <t xml:space="preserve">Aadhar Number </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mobile Number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Customer ID</t>
+  </si>
   <si>
     <t xml:space="preserve">TC_ID</t>
   </si>
@@ -29,46 +39,46 @@
     <t xml:space="preserve">TC_Name</t>
   </si>
   <si>
-    <t xml:space="preserve">schemeName</t>
-  </si>
-  <si>
-    <t xml:space="preserve">schemeColendar</t>
-  </si>
-  <si>
-    <t xml:space="preserve">schemeDescription</t>
-  </si>
-  <si>
-    <t xml:space="preserve">schemeType</t>
-  </si>
-  <si>
-    <t xml:space="preserve">schemeLTV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">schemMiniumumLoanAmount</t>
-  </si>
-  <si>
-    <t xml:space="preserve">schemMaximumLoanAmount</t>
-  </si>
-  <si>
-    <t xml:space="preserve">schemRateOfInterest</t>
-  </si>
-  <si>
-    <t xml:space="preserve">schemLoanTenure</t>
-  </si>
-  <si>
-    <t xml:space="preserve">schemeAdditionalRateOfInterest</t>
-  </si>
-  <si>
-    <t xml:space="preserve">schemeRepaymenetFrequency</t>
-  </si>
-  <si>
-    <t xml:space="preserve">schemeFeeName</t>
-  </si>
-  <si>
-    <t xml:space="preserve">schemeFeeType</t>
-  </si>
-  <si>
-    <t xml:space="preserve">schemeFeeAmount</t>
+    <t xml:space="preserve">Scheme_Name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scheme_Colendar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scheme_Description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scheme_Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scheme_LTV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scheme_MiniumumLoanAmount</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scheme_MaximumLoanAmount</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scheme_RateOfInterest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scheme_LoanTenure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scheme_AdditionalRateOfInterest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scheme_RepaymenetFrequency</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scheme_FeeName</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scheme_FeeType</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scheme_FeeAmount</t>
   </si>
   <si>
     <t xml:space="preserve">TC_01</t>
@@ -110,13 +120,19 @@
     <t xml:space="preserve">This is scheme description for </t>
   </si>
   <si>
-    <t xml:space="preserve">Aadhar Number </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mobile Number</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Customer ID</t>
+    <t xml:space="preserve">Customer_ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loan_Amount</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gold_Pouch_Number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Application_Number</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Create New Loan</t>
   </si>
 </sst>
 </file>
@@ -212,11 +228,11 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -241,10 +257,160 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="11.61"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="n">
+        <v>999999999901</v>
+      </c>
+      <c r="B2" s="1" t="n">
+        <v>9999999901</v>
+      </c>
+      <c r="C2" s="1" t="n">
+        <v>1234501</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="n">
+        <v>999999999902</v>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>9999999902</v>
+      </c>
+      <c r="C3" s="1" t="n">
+        <v>1234502</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="n">
+        <v>999999999903</v>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>9999999903</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>1234503</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="n">
+        <v>999999999904</v>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>9999999904</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>1234504</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="n">
+        <v>999999999905</v>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>9999999905</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>1234505</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="n">
+        <v>999999999906</v>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>9999999906</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>1234506</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="n">
+        <v>999999999907</v>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>9999999907</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>1234507</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="n">
+        <v>999999999908</v>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>9999999908</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>1234508</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="n">
+        <v>999999999909</v>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>9999999909</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>1234509</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="n">
+        <v>999999999910</v>
+      </c>
+      <c r="B11" s="1" t="n">
+        <v>9999999910</v>
+      </c>
+      <c r="C11" s="1" t="n">
+        <v>1234510</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:P3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E4" activeCellId="0" sqref="E4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -255,85 +421,85 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="19"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="26.72"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="0" width="19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="29.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="31.34"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="28.36"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="21.19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="31.89"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="29.91"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="20.32"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="31.02"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="19.1"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="24.73"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="19.1"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="M1" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="N1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>21</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="G2" s="3" t="n">
         <v>100</v>
@@ -353,37 +519,37 @@
       <c r="L2" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="M2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>24</v>
+      <c r="M2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="P2" s="3" t="n">
         <v>1.34</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>21</v>
+      <c r="B3" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>24</v>
       </c>
       <c r="G3" s="3" t="n">
         <v>100</v>
@@ -403,14 +569,14 @@
       <c r="L3" s="3" t="n">
         <v>0</v>
       </c>
-      <c r="M3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="N3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="O3" s="2" t="s">
-        <v>24</v>
+      <c r="M3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>27</v>
       </c>
       <c r="P3" s="3" t="n">
         <v>1.34</v>
@@ -449,144 +615,62 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.02"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="11.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="14.92"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="17.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="20.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="19.95"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="n">
-        <v>999999999901</v>
-      </c>
-      <c r="B2" s="2" t="n">
-        <v>9999999901</v>
-      </c>
-      <c r="C2" s="2" t="n">
-        <v>1234501</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="n">
-        <v>999999999902</v>
-      </c>
-      <c r="B3" s="2" t="n">
-        <v>9999999902</v>
-      </c>
-      <c r="C3" s="2" t="n">
-        <v>1234502</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="n">
-        <v>999999999903</v>
-      </c>
-      <c r="B4" s="2" t="n">
-        <v>9999999903</v>
-      </c>
-      <c r="C4" s="2" t="n">
-        <v>1234503</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="n">
-        <v>999999999904</v>
-      </c>
-      <c r="B5" s="2" t="n">
-        <v>9999999904</v>
-      </c>
-      <c r="C5" s="2" t="n">
-        <v>1234504</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="n">
-        <v>999999999905</v>
-      </c>
-      <c r="B6" s="2" t="n">
-        <v>9999999905</v>
-      </c>
-      <c r="C6" s="2" t="n">
-        <v>1234505</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="n">
-        <v>999999999906</v>
-      </c>
-      <c r="B7" s="2" t="n">
-        <v>9999999906</v>
-      </c>
-      <c r="C7" s="2" t="n">
-        <v>1234506</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="n">
-        <v>999999999907</v>
-      </c>
-      <c r="B8" s="2" t="n">
-        <v>9999999907</v>
-      </c>
-      <c r="C8" s="2" t="n">
-        <v>1234507</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="n">
-        <v>999999999908</v>
-      </c>
-      <c r="B9" s="2" t="n">
-        <v>9999999908</v>
-      </c>
-      <c r="C9" s="2" t="n">
-        <v>1234508</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="n">
-        <v>999999999909</v>
-      </c>
-      <c r="B10" s="2" t="n">
-        <v>9999999909</v>
-      </c>
-      <c r="C10" s="2" t="n">
-        <v>1234509</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="n">
-        <v>999999999910</v>
-      </c>
-      <c r="B11" s="2" t="n">
-        <v>9999999910</v>
-      </c>
-      <c r="C11" s="2" t="n">
-        <v>1234510</v>
-      </c>
+      <c r="A2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="1" t="n">
+        <v>1344287</v>
+      </c>
+      <c r="D2" s="1" t="n">
+        <v>15000</v>
+      </c>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/src/main/resources/TestData.xlsx
+++ b/src/main/resources/TestData.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="38">
   <si>
     <t xml:space="preserve">Aadhar Number </t>
   </si>
@@ -133,6 +133,9 @@
   </si>
   <si>
     <t xml:space="preserve">Create New Loan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tenure24standardquaterly</t>
   </si>
 </sst>
 </file>
@@ -620,20 +623,21 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.26"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="14.92"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="17.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="20.1"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="19.95"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="23.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="20.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="19.95"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -650,9 +654,12 @@
         <v>33</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>35</v>
       </c>
     </row>
@@ -669,8 +676,11 @@
       <c r="D2" s="1" t="n">
         <v>15000</v>
       </c>
-      <c r="E2" s="1"/>
+      <c r="E2" s="1" t="s">
+        <v>37</v>
+      </c>
       <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/src/main/resources/TestData.xlsx
+++ b/src/main/resources/TestData.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="44">
   <si>
     <t xml:space="preserve">Aadhar Number </t>
   </si>
@@ -136,6 +136,24 @@
   </si>
   <si>
     <t xml:space="preserve">tenure24standardquaterly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GL4091105229</t>
+  </si>
+  <si>
+    <t>GL4091111288</t>
+  </si>
+  <si>
+    <t>GL4091183376</t>
+  </si>
+  <si>
+    <t>GL4091112283</t>
+  </si>
+  <si>
+    <t>GL4091151249</t>
+  </si>
+  <si>
+    <t>GL4091100227</t>
   </si>
 </sst>
 </file>
@@ -268,9 +286,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.02"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="11.61"/>
+    <col min="1" max="1" customWidth="true" hidden="false" style="0" width="15.02" collapsed="false" outlineLevel="0"/>
+    <col min="2" max="2" customWidth="true" hidden="false" style="0" width="13.12" collapsed="false" outlineLevel="0"/>
+    <col min="3" max="3" customWidth="true" hidden="false" style="0" width="11.61" collapsed="false" outlineLevel="0"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -418,21 +436,21 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="31.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="20.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="26.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="0" width="19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="31.34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="28.36"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="21.19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="20.32"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="31.02"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="19.1"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="24.73"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="19.1"/>
+    <col min="1" max="1" customWidth="true" hidden="false" style="0" width="20.54" collapsed="false" outlineLevel="0"/>
+    <col min="2" max="2" customWidth="true" hidden="false" style="0" width="31.12" collapsed="false" outlineLevel="0"/>
+    <col min="3" max="3" customWidth="true" hidden="false" style="0" width="20.54" collapsed="false" outlineLevel="0"/>
+    <col min="4" max="4" customWidth="true" hidden="false" style="0" width="19.0" collapsed="false" outlineLevel="0"/>
+    <col min="5" max="5" customWidth="true" hidden="false" style="0" width="26.72" collapsed="false" outlineLevel="0"/>
+    <col min="6" max="7" customWidth="true" hidden="false" style="0" width="19.0" collapsed="false" outlineLevel="0"/>
+    <col min="8" max="8" customWidth="true" hidden="false" style="0" width="31.34" collapsed="false" outlineLevel="0"/>
+    <col min="9" max="9" customWidth="true" hidden="false" style="0" width="28.36" collapsed="false" outlineLevel="0"/>
+    <col min="10" max="10" customWidth="true" hidden="false" style="0" width="21.19" collapsed="false" outlineLevel="0"/>
+    <col min="11" max="11" customWidth="true" hidden="false" style="0" width="20.32" collapsed="false" outlineLevel="0"/>
+    <col min="12" max="12" customWidth="true" hidden="false" style="0" width="33.0" collapsed="false" outlineLevel="0"/>
+    <col min="13" max="13" customWidth="true" hidden="false" style="0" width="31.02" collapsed="false" outlineLevel="0"/>
+    <col min="14" max="14" customWidth="true" hidden="false" style="0" width="19.1" collapsed="false" outlineLevel="0"/>
+    <col min="15" max="15" customWidth="true" hidden="false" style="0" width="24.73" collapsed="false" outlineLevel="0"/>
+    <col min="16" max="16" customWidth="true" hidden="false" style="0" width="19.1" collapsed="false" outlineLevel="0"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -623,21 +641,21 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
+      <selection pane="topLeft" activeCell="D10" activeCellId="0" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.26"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="14.92"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="17.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="23.41"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="20.1"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="19.95"/>
+    <col min="1" max="1" customWidth="true" hidden="false" style="0" width="6.43" collapsed="false" outlineLevel="0"/>
+    <col min="2" max="2" customWidth="true" hidden="false" style="0" width="15.26" collapsed="false" outlineLevel="0"/>
+    <col min="3" max="3" customWidth="true" hidden="false" style="0" width="14.92" collapsed="false" outlineLevel="0"/>
+    <col min="4" max="4" customWidth="true" hidden="false" style="0" width="17.78" collapsed="false" outlineLevel="0"/>
+    <col min="5" max="5" customWidth="true" hidden="false" style="0" width="23.41" collapsed="false" outlineLevel="0"/>
+    <col min="6" max="6" customWidth="true" hidden="false" style="0" width="20.1" collapsed="false" outlineLevel="0"/>
+    <col min="7" max="7" customWidth="true" hidden="false" style="0" width="19.95" collapsed="false" outlineLevel="0"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -680,7 +698,30 @@
         <v>37</v>
       </c>
       <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
+      <c r="G2" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="1" t="n">
+        <v>1344287</v>
+      </c>
+      <c r="D3" s="1" t="n">
+        <v>14000</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1" t="s">
+        <v>43</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/src/main/resources/TestData.xlsx
+++ b/src/main/resources/TestData.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="42">
   <si>
     <t xml:space="preserve">Aadhar Number </t>
   </si>
@@ -138,22 +138,16 @@
     <t xml:space="preserve">tenure24standardquaterly</t>
   </si>
   <si>
-    <t xml:space="preserve">GL4091105229</t>
-  </si>
-  <si>
-    <t>GL4091111288</t>
-  </si>
-  <si>
-    <t>GL4091183376</t>
-  </si>
-  <si>
-    <t>GL4091112283</t>
-  </si>
-  <si>
-    <t>GL4091151249</t>
-  </si>
-  <si>
-    <t>GL4091100227</t>
+    <t xml:space="preserve">GL4091130362</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GL4091190218</t>
+  </si>
+  <si>
+    <t>GL4091119779</t>
+  </si>
+  <si>
+    <t>GL4091142295</t>
   </si>
 </sst>
 </file>
@@ -644,7 +638,7 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D10" activeCellId="0" sqref="D10"/>
+      <selection pane="topLeft" activeCell="H1" activeCellId="0" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -699,7 +693,7 @@
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -720,7 +714,7 @@
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/TestData.xlsx
+++ b/src/main/resources/TestData.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="41">
   <si>
     <t xml:space="preserve">Aadhar Number </t>
   </si>
@@ -126,9 +126,6 @@
     <t xml:space="preserve">Loan_Amount</t>
   </si>
   <si>
-    <t xml:space="preserve">Gold_Pouch_Number</t>
-  </si>
-  <si>
     <t xml:space="preserve">Application_Number</t>
   </si>
   <si>
@@ -138,16 +135,16 @@
     <t xml:space="preserve">tenure24standardquaterly</t>
   </si>
   <si>
-    <t xml:space="preserve">GL4091130362</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GL4091190218</t>
-  </si>
-  <si>
-    <t>GL4091119779</t>
-  </si>
-  <si>
-    <t>GL4091142295</t>
+    <t xml:space="preserve">GL4091208525</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GL4091222624</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TC_03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GL4091216002</t>
   </si>
 </sst>
 </file>
@@ -280,9 +277,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" customWidth="true" hidden="false" style="0" width="15.02" collapsed="false" outlineLevel="0"/>
-    <col min="2" max="2" customWidth="true" hidden="false" style="0" width="13.12" collapsed="false" outlineLevel="0"/>
-    <col min="3" max="3" customWidth="true" hidden="false" style="0" width="11.61" collapsed="false" outlineLevel="0"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="11.61"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -430,21 +427,21 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" customWidth="true" hidden="false" style="0" width="20.54" collapsed="false" outlineLevel="0"/>
-    <col min="2" max="2" customWidth="true" hidden="false" style="0" width="31.12" collapsed="false" outlineLevel="0"/>
-    <col min="3" max="3" customWidth="true" hidden="false" style="0" width="20.54" collapsed="false" outlineLevel="0"/>
-    <col min="4" max="4" customWidth="true" hidden="false" style="0" width="19.0" collapsed="false" outlineLevel="0"/>
-    <col min="5" max="5" customWidth="true" hidden="false" style="0" width="26.72" collapsed="false" outlineLevel="0"/>
-    <col min="6" max="7" customWidth="true" hidden="false" style="0" width="19.0" collapsed="false" outlineLevel="0"/>
-    <col min="8" max="8" customWidth="true" hidden="false" style="0" width="31.34" collapsed="false" outlineLevel="0"/>
-    <col min="9" max="9" customWidth="true" hidden="false" style="0" width="28.36" collapsed="false" outlineLevel="0"/>
-    <col min="10" max="10" customWidth="true" hidden="false" style="0" width="21.19" collapsed="false" outlineLevel="0"/>
-    <col min="11" max="11" customWidth="true" hidden="false" style="0" width="20.32" collapsed="false" outlineLevel="0"/>
-    <col min="12" max="12" customWidth="true" hidden="false" style="0" width="33.0" collapsed="false" outlineLevel="0"/>
-    <col min="13" max="13" customWidth="true" hidden="false" style="0" width="31.02" collapsed="false" outlineLevel="0"/>
-    <col min="14" max="14" customWidth="true" hidden="false" style="0" width="19.1" collapsed="false" outlineLevel="0"/>
-    <col min="15" max="15" customWidth="true" hidden="false" style="0" width="24.73" collapsed="false" outlineLevel="0"/>
-    <col min="16" max="16" customWidth="true" hidden="false" style="0" width="19.1" collapsed="false" outlineLevel="0"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="31.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="20.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="26.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="0" width="19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="31.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="28.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="21.19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="20.32"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="31.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="19.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="24.73"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="19.1"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -635,21 +632,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H1" activeCellId="0" sqref="H1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" customWidth="true" hidden="false" style="0" width="6.43" collapsed="false" outlineLevel="0"/>
-    <col min="2" max="2" customWidth="true" hidden="false" style="0" width="15.26" collapsed="false" outlineLevel="0"/>
-    <col min="3" max="3" customWidth="true" hidden="false" style="0" width="14.92" collapsed="false" outlineLevel="0"/>
-    <col min="4" max="4" customWidth="true" hidden="false" style="0" width="17.78" collapsed="false" outlineLevel="0"/>
-    <col min="5" max="5" customWidth="true" hidden="false" style="0" width="23.41" collapsed="false" outlineLevel="0"/>
-    <col min="6" max="6" customWidth="true" hidden="false" style="0" width="20.1" collapsed="false" outlineLevel="0"/>
-    <col min="7" max="7" customWidth="true" hidden="false" style="0" width="19.95" collapsed="false" outlineLevel="0"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="14.92"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="17.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="23.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="19.95"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -671,29 +667,25 @@
       <c r="F1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>35</v>
-      </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>1344287</v>
+        <v>1344330</v>
       </c>
       <c r="D2" s="1" t="n">
         <v>15000</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>37</v>
-      </c>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -701,20 +693,39 @@
         <v>28</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>1344287</v>
+        <v>1344331</v>
       </c>
       <c r="D3" s="1" t="n">
         <v>14000</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>1344332</v>
+      </c>
+      <c r="D4" s="1" t="n">
+        <v>14000</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/TestData.xlsx
+++ b/src/main/resources/TestData.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="40">
   <si>
     <t xml:space="preserve">Aadhar Number </t>
   </si>
@@ -138,13 +138,10 @@
     <t xml:space="preserve">GL4091208525</t>
   </si>
   <si>
-    <t xml:space="preserve">GL4091222624</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TC_03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GL4091216002</t>
+    <t>GL4091555570</t>
+  </si>
+  <si>
+    <t>GL4091501872</t>
   </si>
 </sst>
 </file>
@@ -272,14 +269,14 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A2:A3 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.02"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="11.61"/>
+    <col min="1" max="1" customWidth="true" hidden="false" style="0" width="15.02" collapsed="false" outlineLevel="0"/>
+    <col min="2" max="2" customWidth="true" hidden="false" style="0" width="13.12" collapsed="false" outlineLevel="0"/>
+    <col min="3" max="3" customWidth="true" hidden="false" style="0" width="11.61" collapsed="false" outlineLevel="0"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -422,26 +419,26 @@
   <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A2:A3 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="31.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="20.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="26.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="0" width="19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="31.34"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="28.36"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="21.19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="20.32"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="31.02"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="19.1"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="24.73"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="19.1"/>
+    <col min="1" max="1" customWidth="true" hidden="false" style="0" width="20.54" collapsed="false" outlineLevel="0"/>
+    <col min="2" max="2" customWidth="true" hidden="false" style="0" width="31.12" collapsed="false" outlineLevel="0"/>
+    <col min="3" max="3" customWidth="true" hidden="false" style="0" width="20.54" collapsed="false" outlineLevel="0"/>
+    <col min="4" max="4" customWidth="true" hidden="false" style="0" width="19.0" collapsed="false" outlineLevel="0"/>
+    <col min="5" max="5" customWidth="true" hidden="false" style="0" width="26.72" collapsed="false" outlineLevel="0"/>
+    <col min="6" max="7" customWidth="true" hidden="false" style="0" width="19.0" collapsed="false" outlineLevel="0"/>
+    <col min="8" max="8" customWidth="true" hidden="false" style="0" width="31.34" collapsed="false" outlineLevel="0"/>
+    <col min="9" max="9" customWidth="true" hidden="false" style="0" width="28.36" collapsed="false" outlineLevel="0"/>
+    <col min="10" max="10" customWidth="true" hidden="false" style="0" width="21.19" collapsed="false" outlineLevel="0"/>
+    <col min="11" max="11" customWidth="true" hidden="false" style="0" width="20.32" collapsed="false" outlineLevel="0"/>
+    <col min="12" max="12" customWidth="true" hidden="false" style="0" width="33.0" collapsed="false" outlineLevel="0"/>
+    <col min="13" max="13" customWidth="true" hidden="false" style="0" width="31.02" collapsed="false" outlineLevel="0"/>
+    <col min="14" max="14" customWidth="true" hidden="false" style="0" width="19.1" collapsed="false" outlineLevel="0"/>
+    <col min="15" max="15" customWidth="true" hidden="false" style="0" width="24.73" collapsed="false" outlineLevel="0"/>
+    <col min="16" max="16" customWidth="true" hidden="false" style="0" width="19.1" collapsed="false" outlineLevel="0"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -632,20 +629,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A2:A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.26"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="14.92"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="17.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="23.41"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="19.95"/>
+    <col min="1" max="1" customWidth="true" hidden="false" style="0" width="6.43" collapsed="false" outlineLevel="0"/>
+    <col min="2" max="2" customWidth="true" hidden="false" style="0" width="15.26" collapsed="false" outlineLevel="0"/>
+    <col min="3" max="3" customWidth="true" hidden="false" style="0" width="14.92" collapsed="false" outlineLevel="0"/>
+    <col min="4" max="4" customWidth="true" hidden="false" style="0" width="17.78" collapsed="false" outlineLevel="0"/>
+    <col min="5" max="5" customWidth="true" hidden="false" style="0" width="23.41" collapsed="false" outlineLevel="0"/>
+    <col min="6" max="6" customWidth="true" hidden="false" style="0" width="19.95" collapsed="false" outlineLevel="0"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -685,47 +682,7 @@
         <v>36</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C3" s="1" t="n">
-        <v>1344331</v>
-      </c>
-      <c r="D3" s="1" t="n">
-        <v>14000</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C4" s="1" t="n">
-        <v>1344332</v>
-      </c>
-      <c r="D4" s="1" t="n">
-        <v>14000</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/TestData.xlsx
+++ b/src/main/resources/TestData.xlsx
@@ -126,6 +126,9 @@
     <t xml:space="preserve">Loan_Amount</t>
   </si>
   <si>
+    <t xml:space="preserve">Gold_Pouch_Number</t>
+  </si>
+  <si>
     <t xml:space="preserve">Application_Number</t>
   </si>
   <si>
@@ -135,13 +138,10 @@
     <t xml:space="preserve">tenure24standardquaterly</t>
   </si>
   <si>
-    <t xml:space="preserve">GL4091208525</t>
-  </si>
-  <si>
-    <t>GL4091555570</t>
-  </si>
-  <si>
-    <t>GL4091501872</t>
+    <t xml:space="preserve">GLBS1016426</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GL4091699697</t>
   </si>
 </sst>
 </file>
@@ -269,14 +269,14 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A2:A3 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" customWidth="true" hidden="false" style="0" width="15.02" collapsed="false" outlineLevel="0"/>
-    <col min="2" max="2" customWidth="true" hidden="false" style="0" width="13.12" collapsed="false" outlineLevel="0"/>
-    <col min="3" max="3" customWidth="true" hidden="false" style="0" width="11.61" collapsed="false" outlineLevel="0"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="13.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="11.61"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -419,26 +419,26 @@
   <dimension ref="A1:P3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="A2:A3 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" customWidth="true" hidden="false" style="0" width="20.54" collapsed="false" outlineLevel="0"/>
-    <col min="2" max="2" customWidth="true" hidden="false" style="0" width="31.12" collapsed="false" outlineLevel="0"/>
-    <col min="3" max="3" customWidth="true" hidden="false" style="0" width="20.54" collapsed="false" outlineLevel="0"/>
-    <col min="4" max="4" customWidth="true" hidden="false" style="0" width="19.0" collapsed="false" outlineLevel="0"/>
-    <col min="5" max="5" customWidth="true" hidden="false" style="0" width="26.72" collapsed="false" outlineLevel="0"/>
-    <col min="6" max="7" customWidth="true" hidden="false" style="0" width="19.0" collapsed="false" outlineLevel="0"/>
-    <col min="8" max="8" customWidth="true" hidden="false" style="0" width="31.34" collapsed="false" outlineLevel="0"/>
-    <col min="9" max="9" customWidth="true" hidden="false" style="0" width="28.36" collapsed="false" outlineLevel="0"/>
-    <col min="10" max="10" customWidth="true" hidden="false" style="0" width="21.19" collapsed="false" outlineLevel="0"/>
-    <col min="11" max="11" customWidth="true" hidden="false" style="0" width="20.32" collapsed="false" outlineLevel="0"/>
-    <col min="12" max="12" customWidth="true" hidden="false" style="0" width="33.0" collapsed="false" outlineLevel="0"/>
-    <col min="13" max="13" customWidth="true" hidden="false" style="0" width="31.02" collapsed="false" outlineLevel="0"/>
-    <col min="14" max="14" customWidth="true" hidden="false" style="0" width="19.1" collapsed="false" outlineLevel="0"/>
-    <col min="15" max="15" customWidth="true" hidden="false" style="0" width="24.73" collapsed="false" outlineLevel="0"/>
-    <col min="16" max="16" customWidth="true" hidden="false" style="0" width="19.1" collapsed="false" outlineLevel="0"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="31.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="20.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="26.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="6" style="0" width="19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="31.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="28.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="21.19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="20.32"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="31.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="19.1"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="24.73"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="0" width="19.1"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -629,20 +629,21 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A2:A3"/>
+      <selection pane="topLeft" activeCell="M12" activeCellId="0" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" customWidth="true" hidden="false" style="0" width="6.43" collapsed="false" outlineLevel="0"/>
-    <col min="2" max="2" customWidth="true" hidden="false" style="0" width="15.26" collapsed="false" outlineLevel="0"/>
-    <col min="3" max="3" customWidth="true" hidden="false" style="0" width="14.92" collapsed="false" outlineLevel="0"/>
-    <col min="4" max="4" customWidth="true" hidden="false" style="0" width="17.78" collapsed="false" outlineLevel="0"/>
-    <col min="5" max="5" customWidth="true" hidden="false" style="0" width="23.41" collapsed="false" outlineLevel="0"/>
-    <col min="6" max="6" customWidth="true" hidden="false" style="0" width="19.95" collapsed="false" outlineLevel="0"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="14.92"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="17.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="23.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="20.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="19.95"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -664,13 +665,16 @@
       <c r="F1" s="2" t="s">
         <v>34</v>
       </c>
+      <c r="G1" s="2" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C2" s="1" t="n">
         <v>1344330</v>
@@ -679,9 +683,12 @@
         <v>15000</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>39</v>
       </c>
     </row>
